--- a/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,148 +513,148 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21772287022454137</v>
+        <v>0.21772287005125124</v>
       </c>
       <c r="C2">
-        <v>0.19006343449767771</v>
+        <v>0.19006343534246165</v>
       </c>
       <c r="D2">
-        <v>2.1200804892434131</v>
+        <v>2.1200804913801026</v>
       </c>
       <c r="E2">
-        <v>0.57999989591995804</v>
+        <v>0.57999989660734419</v>
       </c>
       <c r="F2">
-        <v>0.90955617657448773</v>
+        <v>0.90955620608089938</v>
       </c>
       <c r="G2">
-        <v>1.3390182692225061</v>
+        <v>1.3390182696943072</v>
       </c>
       <c r="H2">
-        <v>2.8806713597005609</v>
+        <v>2.8806713581441694</v>
       </c>
       <c r="I2">
-        <v>9.0567211922406479E-2</v>
+        <v>9.0567212070362335E-2</v>
       </c>
       <c r="J2">
-        <v>2.3904468138414483</v>
+        <v>2.3904468139068733</v>
       </c>
       <c r="K2">
-        <v>0.69775621248750908</v>
+        <v>0.69775621708528168</v>
       </c>
       <c r="L2">
-        <v>0.70959225032871942</v>
+        <v>0.70959225092952627</v>
       </c>
       <c r="M2">
-        <v>1.4495663327191668</v>
+        <v>1.4495663201602997</v>
       </c>
       <c r="N2">
-        <v>9.1361509365888646E-2</v>
+        <v>9.1361509375766745E-2</v>
       </c>
       <c r="O2">
-        <v>1.2131542771266319</v>
+        <v>1.2131542774699271</v>
       </c>
       <c r="P2">
-        <v>0.10491361905984053</v>
+        <v>0.104913619685136</v>
       </c>
       <c r="Q2">
-        <v>0.52900464578260276</v>
+        <v>0.52900464556839488</v>
       </c>
       <c r="R2">
-        <v>1.185218341321965</v>
+        <v>1.1852183381130754</v>
       </c>
       <c r="S2">
-        <v>0.65051622281923616</v>
+        <v>0.65051622014682675</v>
       </c>
       <c r="T2">
-        <v>0.47997237338695831</v>
+        <v>0.47997237563125972</v>
       </c>
       <c r="U2">
-        <v>0.88782418591852341</v>
+        <v>0.88782417589942708</v>
       </c>
       <c r="V2">
-        <v>0.98023312093072879</v>
+        <v>0.98023312079615987</v>
       </c>
       <c r="W2">
-        <v>0.34488586096122492</v>
+        <v>0.34488586080477573</v>
       </c>
       <c r="X2">
-        <v>0.20460627581606594</v>
+        <v>0.20460627545952473</v>
       </c>
       <c r="Y2">
-        <v>0.20184808555273989</v>
+        <v>0.20184808507276894</v>
       </c>
       <c r="AA2">
-        <v>0.53562577978329118</v>
+        <v>0.53562577967053049</v>
       </c>
       <c r="AB2">
-        <v>0.20442476010972399</v>
+        <v>0.20442476017945568</v>
       </c>
       <c r="AC2">
-        <v>2.5136569883768041</v>
+        <v>2.5136569980161627</v>
       </c>
       <c r="AD2">
-        <v>0.39345586643617575</v>
+        <v>0.3934558683756022</v>
       </c>
       <c r="AE2">
-        <v>0.51611959696734411</v>
+        <v>0.51611959673391317</v>
       </c>
       <c r="AF2">
-        <v>1.2446233612437292</v>
+        <v>1.244623370028489</v>
       </c>
       <c r="AG2">
-        <v>1.5247757765814933</v>
+        <v>1.5247757763675842</v>
       </c>
       <c r="AH2">
-        <v>0.17959818013383669</v>
+        <v>0.17959817905486444</v>
       </c>
       <c r="AI2">
-        <v>3.4189870503124076</v>
+        <v>3.4189870468352126</v>
       </c>
       <c r="AJ2">
-        <v>1.3311817773066539</v>
+        <v>1.3311817754583375</v>
       </c>
       <c r="AK2">
-        <v>0.90087773708696606</v>
+        <v>0.90087773024473494</v>
       </c>
       <c r="AL2">
-        <v>0.63058774723067257</v>
+        <v>0.63058775087103447</v>
       </c>
       <c r="AM2">
-        <v>0.14043213952491626</v>
+        <v>0.14043214109872218</v>
       </c>
       <c r="AN2">
-        <v>3.2613620008253239</v>
+        <v>3.2613619788749233</v>
       </c>
       <c r="AO2">
-        <v>0.23579701313780299</v>
+        <v>0.23579701316085244</v>
       </c>
       <c r="AP2">
-        <v>0.76776508927160592</v>
+        <v>0.76776508893961026</v>
       </c>
       <c r="AQ2">
-        <v>0.9860601800373261</v>
+        <v>0.98606017997006268</v>
       </c>
       <c r="AR2">
-        <v>0.41729292328114331</v>
+        <v>0.41729291628549259</v>
       </c>
       <c r="AS2">
-        <v>0.14721601173025406</v>
+        <v>0.14721601202668685</v>
       </c>
       <c r="AT2">
-        <v>1.184711121172112</v>
+        <v>1.184711121187221</v>
       </c>
       <c r="AU2">
-        <v>0.63207951883811975</v>
+        <v>0.63207951355219671</v>
       </c>
       <c r="AV2">
-        <v>0.33742251919249083</v>
+        <v>0.33742251702633214</v>
       </c>
       <c r="AW2">
-        <v>0.19224926869117306</v>
+        <v>0.19224926867803852</v>
       </c>
       <c r="AX2">
-        <v>0.21619756232395324</v>
+        <v>0.21619756222209638</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -667,148 +662,148 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.83191241599150478</v>
+        <v>0.83191241610726541</v>
       </c>
       <c r="C3">
-        <v>0.6707488205742399</v>
+        <v>0.67074882140172265</v>
       </c>
       <c r="D3">
-        <v>0.43476775892866737</v>
+        <v>0.43476775939143159</v>
       </c>
       <c r="E3">
-        <v>0.90191497015631794</v>
+        <v>0.90191496906180701</v>
       </c>
       <c r="F3">
-        <v>1.0270541743419341</v>
+        <v>1.0270541638687474</v>
       </c>
       <c r="G3">
-        <v>1.6682355877988269</v>
+        <v>1.6682355880844113</v>
       </c>
       <c r="H3">
-        <v>2.5222246675856943</v>
+        <v>2.5222246877015633</v>
       </c>
       <c r="I3">
-        <v>0.56193259326874012</v>
+        <v>0.56193258126475587</v>
       </c>
       <c r="J3">
-        <v>1.5343705237731566</v>
+        <v>1.5343705174543583</v>
       </c>
       <c r="K3">
-        <v>1.3022682784151767</v>
+        <v>1.3022682762429907</v>
       </c>
       <c r="L3">
-        <v>0.54838763684212821</v>
+        <v>0.54838763585117623</v>
       </c>
       <c r="M3">
-        <v>0.47946994868204129</v>
+        <v>0.48019634851184995</v>
       </c>
       <c r="N3">
-        <v>0.22171485292075674</v>
+        <v>0.22171485292124826</v>
       </c>
       <c r="O3">
-        <v>1.1008864445316475</v>
+        <v>1.1008864504096048</v>
       </c>
       <c r="P3">
-        <v>0.10654901385004543</v>
+        <v>0.1065490137721276</v>
       </c>
       <c r="Q3">
-        <v>0.32868308807882302</v>
+        <v>0.32868308781257033</v>
       </c>
       <c r="R3">
-        <v>0.41968688564610845</v>
+        <v>0.41968688556390954</v>
       </c>
       <c r="S3">
-        <v>0.14802589155392673</v>
+        <v>0.14802589144231995</v>
       </c>
       <c r="T3">
-        <v>0.2688666533410296</v>
+        <v>0.26886664756057016</v>
       </c>
       <c r="U3">
-        <v>1.6190064145787695</v>
+        <v>1.6190064295821875</v>
       </c>
       <c r="V3">
-        <v>0.889190973282313</v>
+        <v>0.88919096327218916</v>
       </c>
       <c r="W3">
-        <v>0.1167120614981067</v>
+        <v>0.11671206141044636</v>
       </c>
       <c r="X3">
-        <v>0.16642673235483676</v>
+        <v>0.16642673234980535</v>
       </c>
       <c r="Y3">
-        <v>0.38441500626225128</v>
+        <v>0.38441500693178243</v>
       </c>
       <c r="AA3">
-        <v>0.48551899213303001</v>
+        <v>0.48551897772180413</v>
       </c>
       <c r="AB3">
-        <v>2.3560094051064655</v>
+        <v>2.3560093903238326</v>
       </c>
       <c r="AC3">
-        <v>1.0734208505757963</v>
+        <v>1.0734208516842576</v>
       </c>
       <c r="AD3">
-        <v>0.45887736041352128</v>
+        <v>0.45887736074383539</v>
       </c>
       <c r="AE3">
-        <v>1.9038159458360628</v>
+        <v>1.9038159510286095</v>
       </c>
       <c r="AF3">
-        <v>0.43393264926010727</v>
+        <v>0.43393264973406681</v>
       </c>
       <c r="AG3">
-        <v>0.49101170088335849</v>
+        <v>0.49101170312795356</v>
       </c>
       <c r="AH3">
-        <v>0.47916342893174346</v>
+        <v>0.47916342892730501</v>
       </c>
       <c r="AI3">
-        <v>1.1204201050497609</v>
+        <v>1.1204201025617604</v>
       </c>
       <c r="AJ3">
-        <v>1.4532848789407413</v>
+        <v>1.453284883493402</v>
       </c>
       <c r="AK3">
-        <v>0.51957364628056757</v>
+        <v>0.51957364656027594</v>
       </c>
       <c r="AL3">
-        <v>0.25741371710361372</v>
+        <v>0.25741371673245539</v>
       </c>
       <c r="AM3">
-        <v>0.26917189289334414</v>
+        <v>0.26917189315422441</v>
       </c>
       <c r="AN3">
-        <v>0.93931927383405911</v>
+        <v>0.93931927950181182</v>
       </c>
       <c r="AO3">
-        <v>0.10536211172294078</v>
+        <v>0.10536211213486456</v>
       </c>
       <c r="AP3">
-        <v>0.20657736584981545</v>
+        <v>0.20657736588837827</v>
       </c>
       <c r="AQ3">
-        <v>0.19671113968006013</v>
+        <v>0.19671113767335269</v>
       </c>
       <c r="AR3">
-        <v>0.16919453383564717</v>
+        <v>0.16919453465777745</v>
       </c>
       <c r="AS3">
-        <v>0.31724152560933011</v>
+        <v>0.31724152475543382</v>
       </c>
       <c r="AT3">
-        <v>1.0634525148498561</v>
+        <v>1.0634525170407298</v>
       </c>
       <c r="AU3">
-        <v>1.0149362924017455</v>
+        <v>1.014936292086362</v>
       </c>
       <c r="AV3">
-        <v>0.30351292993427825</v>
+        <v>0.30351293022124393</v>
       </c>
       <c r="AW3">
-        <v>0.22466492475109304</v>
+        <v>0.22466492481740055</v>
       </c>
       <c r="AX3">
-        <v>0.43393286918664248</v>
+        <v>0.43393286934544162</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,59 +401,56 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>0.21772287005125124</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.19006343534246165</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>2.1200804913801026</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>0.57999989660734419</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>0.90955620608089938</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>1.3390182696943072</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>2.8806713581441694</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>9.0567212070362335E-2</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>2.3904468139068733</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0.69775621708528168</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.70959225092952627</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>1.4495663201602997</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>9.1361509375766745E-2</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>1.2131542774699271</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.104913619685136</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.52900464556839488</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.1852183381130754</v>
+        <v>0</v>
       </c>
       <c r="S2">
         <v>0.65051622014682675</v>
@@ -585,55 +474,55 @@
         <v>0.20184808507276894</v>
       </c>
       <c r="AA2">
-        <v>0.53562577967053049</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.20442476017945568</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>2.5136569980161627</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>0.3934558683756022</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>0.51611959673391317</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>1.244623370028489</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>1.5247757763675842</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>0.17959817905486444</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>3.4189870468352126</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>1.3311817754583375</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>0.90087773024473494</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>0.63058775087103447</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>0.14043214109872218</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>3.2613619788749233</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>0.23579701316085244</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>0.76776508893961026</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>0.98606017997006268</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>0.41729291628549259</v>
@@ -656,61 +545,61 @@
       <c r="AX2">
         <v>0.21619756222209638</v>
       </c>
+      <c r="AY2">
+        <v>0.7619949070053792</v>
+      </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>0.83191241610726541</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>0.67074882140172265</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>0.43476775939143159</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>0.90191496906180701</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>1.0270541638687474</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>1.6682355880844113</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>2.5222246877015633</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0.56193258126475587</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>1.5343705174543583</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>1.3022682762429907</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0.54838763585117623</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>0.48019634851184995</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>0.22171485292124826</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>1.1008864504096048</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>0.1065490137721276</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>0.32868308781257033</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>0.41968688556390954</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>0.14802589144231995</v>
@@ -734,55 +623,55 @@
         <v>0.38441500693178243</v>
       </c>
       <c r="AA3">
-        <v>0.48551897772180413</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>2.3560093903238326</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>1.0734208516842576</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>0.45887736074383539</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>1.9038159510286095</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>0.43393264973406681</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>0.49101170312795356</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>0.47916342892730501</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>1.1204201025617604</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>1.453284883493402</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>0.51957364656027594</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>0.25741371673245539</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>0.26917189315422441</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>0.93931927950181182</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>0.10536211213486456</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>0.20657736588837827</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>0.19671113767335269</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>0.16919453465777745</v>
@@ -804,6 +693,9 @@
       </c>
       <c r="AX3">
         <v>0.43393286934544162</v>
+      </c>
+      <c r="AY3">
+        <v>0.44942418455278021</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0.21772287022454137</v>
+        <v>0.90008561529877906</v>
       </c>
       <c r="C2">
-        <v>0.19006343449767771</v>
+        <v>1.1852183381130754</v>
       </c>
       <c r="D2">
-        <v>2.0641449433474328</v>
+        <v>3.2613619788749233</v>
       </c>
       <c r="E2">
-        <v>0.57999989591995804</v>
+        <v>0.98606017997006268</v>
       </c>
       <c r="F2">
         <v>0.90955617657448773</v>
@@ -667,16 +662,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.83191241599150478</v>
+        <v>1.1008864504096048</v>
       </c>
       <c r="C3">
-        <v>0.6707488205742399</v>
+        <v>0.41968688556390954</v>
       </c>
       <c r="D3">
-        <v>0.43476775892866737</v>
+        <v>0.93931927950181182</v>
       </c>
       <c r="E3">
-        <v>0.90191497015631794</v>
+        <v>0.1033460594134976</v>
       </c>
       <c r="F3">
         <v>1.0270541743419341</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -517,17 +512,14 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>0.21772287022454137</v>
-      </c>
       <c r="C2">
-        <v>0.19006343449767771</v>
+        <v>0.90008561529877906</v>
       </c>
       <c r="D2">
-        <v>2.0641449433474328</v>
+        <v>0.14043214109872218</v>
       </c>
       <c r="E2">
-        <v>0.57999989591995804</v>
+        <v>3.2613619788749233</v>
       </c>
       <c r="F2">
         <v>0.90955617657448773</v>
@@ -667,16 +659,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>0.83191241599150478</v>
+        <v>0.22171485292124826</v>
       </c>
       <c r="C3">
-        <v>0.6707488205742399</v>
+        <v>1.1008864504096048</v>
       </c>
       <c r="D3">
-        <v>0.43476775892866737</v>
+        <v>0.26917189315422441</v>
       </c>
       <c r="E3">
-        <v>0.90191497015631794</v>
+        <v>0.93931927950181182</v>
       </c>
       <c r="F3">
         <v>1.0270541743419341</v>

--- a/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_gl_zero.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -512,146 +512,149 @@
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.21772287005125124</v>
+      </c>
       <c r="C2">
+        <v>0.19006343534246165</v>
+      </c>
+      <c r="D2">
+        <v>2.0641449453144594</v>
+      </c>
+      <c r="E2">
+        <v>0.57999989660734419</v>
+      </c>
+      <c r="F2">
+        <v>0.90955620608089938</v>
+      </c>
+      <c r="G2">
+        <v>1.3390182696943072</v>
+      </c>
+      <c r="H2">
+        <v>2.8806713581441694</v>
+      </c>
+      <c r="I2">
+        <v>9.0567212070362335E-2</v>
+      </c>
+      <c r="J2">
+        <v>2.3904468139068733</v>
+      </c>
+      <c r="K2">
+        <v>0.69775621708528168</v>
+      </c>
+      <c r="L2">
+        <v>0.70959225092952627</v>
+      </c>
+      <c r="M2">
+        <v>1.4495663201602997</v>
+      </c>
+      <c r="O2">
         <v>0.90008561529877906</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.104913619685136</v>
+      </c>
+      <c r="Q2">
+        <v>0.52900464556839488</v>
+      </c>
+      <c r="R2">
+        <v>1.1852183381130754</v>
+      </c>
+      <c r="S2">
+        <v>0.65051622014682675</v>
+      </c>
+      <c r="T2">
+        <v>0.38237575118300415</v>
+      </c>
+      <c r="U2">
+        <v>0.88782417589942708</v>
+      </c>
+      <c r="V2">
+        <v>0.98023312079615987</v>
+      </c>
+      <c r="W2">
+        <v>0.34488586080477573</v>
+      </c>
+      <c r="X2">
+        <v>0.20460627545952473</v>
+      </c>
+      <c r="Y2">
+        <v>0.19983038278502666</v>
+      </c>
+      <c r="AA2">
+        <v>0.53562577967053049</v>
+      </c>
+      <c r="AB2">
+        <v>0.20442476017942099</v>
+      </c>
+      <c r="AC2">
+        <v>2.5136569980161627</v>
+      </c>
+      <c r="AD2">
+        <v>0.3934558683756022</v>
+      </c>
+      <c r="AE2">
+        <v>0.51611959673391317</v>
+      </c>
+      <c r="AF2">
+        <v>1.244623370028489</v>
+      </c>
+      <c r="AG2">
+        <v>1.5247757763675842</v>
+      </c>
+      <c r="AH2">
+        <v>0.26547937332118166</v>
+      </c>
+      <c r="AI2">
+        <v>3.4189870468352126</v>
+      </c>
+      <c r="AJ2">
+        <v>1.3311817754583375</v>
+      </c>
+      <c r="AK2">
+        <v>0.90087773024473494</v>
+      </c>
+      <c r="AL2">
+        <v>0.63058775087103447</v>
+      </c>
+      <c r="AM2">
         <v>0.14043214109872218</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>3.2613619788749233</v>
       </c>
-      <c r="F2">
-        <v>0.90955617657448773</v>
-      </c>
-      <c r="G2">
-        <v>1.3390182692225061</v>
-      </c>
-      <c r="H2">
-        <v>2.8806713597005609</v>
-      </c>
-      <c r="I2">
-        <v>9.0567211922406479E-2</v>
-      </c>
-      <c r="J2">
-        <v>2.3904468138414483</v>
-      </c>
-      <c r="K2">
-        <v>0.69775621248750908</v>
-      </c>
-      <c r="L2">
-        <v>0.70959225032871942</v>
-      </c>
-      <c r="M2">
-        <v>1.4495663327191668</v>
-      </c>
-      <c r="O2">
-        <v>0.90008561464330417</v>
-      </c>
-      <c r="P2">
-        <v>0.10491361905984053</v>
-      </c>
-      <c r="Q2">
-        <v>0.52900464578260276</v>
-      </c>
-      <c r="R2">
-        <v>1.185218341321965</v>
-      </c>
-      <c r="S2">
-        <v>0.65051622281923616</v>
-      </c>
-      <c r="T2">
-        <v>0.38237575056390649</v>
-      </c>
-      <c r="U2">
-        <v>0.88782418591852341</v>
-      </c>
-      <c r="V2">
-        <v>0.98023312093072879</v>
-      </c>
-      <c r="W2">
-        <v>0.34488586096122492</v>
-      </c>
-      <c r="X2">
-        <v>0.20460627581606594</v>
-      </c>
-      <c r="Y2">
-        <v>0.19983038317655225</v>
-      </c>
-      <c r="AA2">
-        <v>0.53562577978329118</v>
-      </c>
-      <c r="AB2">
-        <v>0.20442476010975877</v>
-      </c>
-      <c r="AC2">
-        <v>2.5136569883768041</v>
-      </c>
-      <c r="AD2">
-        <v>0.39345586643617575</v>
-      </c>
-      <c r="AE2">
-        <v>0.51611959696734411</v>
-      </c>
-      <c r="AF2">
-        <v>1.2446233612437292</v>
-      </c>
-      <c r="AG2">
-        <v>1.5247757765814933</v>
-      </c>
-      <c r="AH2">
-        <v>0.26547937494053764</v>
-      </c>
-      <c r="AI2">
-        <v>3.4189870503124076</v>
-      </c>
-      <c r="AJ2">
-        <v>1.3311817773066539</v>
-      </c>
-      <c r="AK2">
-        <v>0.90087773708696606</v>
-      </c>
-      <c r="AL2">
-        <v>0.63058774723067257</v>
-      </c>
-      <c r="AM2">
-        <v>0.14043213952491626</v>
-      </c>
-      <c r="AN2">
-        <v>3.2613620008253239</v>
-      </c>
       <c r="AO2">
-        <v>0.23579701313780299</v>
+        <v>0.23579701316085244</v>
       </c>
       <c r="AP2">
-        <v>0.4771247142866672</v>
+        <v>0.47712471368651982</v>
       </c>
       <c r="AQ2">
-        <v>0.9860601800373261</v>
+        <v>0.98606017997006268</v>
       </c>
       <c r="AR2">
-        <v>0.41729292328114331</v>
+        <v>0.41729291628549259</v>
       </c>
       <c r="AS2">
-        <v>0.14721601173025406</v>
+        <v>0.14721601202668685</v>
       </c>
       <c r="AT2">
-        <v>1.184711121172112</v>
+        <v>1.184711121187221</v>
       </c>
       <c r="AU2">
-        <v>0.63207951883811975</v>
+        <v>0.63207951355219671</v>
       </c>
       <c r="AV2">
-        <v>0.33742251919249083</v>
+        <v>0.33742251702633214</v>
       </c>
       <c r="AW2">
-        <v>0.19224926869117306</v>
+        <v>0.19224926867803852</v>
       </c>
       <c r="AX2">
-        <v>0.21619756232395324</v>
+        <v>0.21619756222209638</v>
       </c>
       <c r="AY2">
-        <v>0.76199490637964018</v>
+        <v>0.7619949070053792</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -659,151 +662,151 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>0.83191241610726541</v>
+      </c>
+      <c r="C3">
+        <v>0.67074882140172265</v>
+      </c>
+      <c r="D3">
+        <v>0.43476775939143159</v>
+      </c>
+      <c r="E3">
+        <v>0.90191496906180701</v>
+      </c>
+      <c r="F3">
+        <v>1.0270541638687474</v>
+      </c>
+      <c r="G3">
+        <v>1.6682355880844113</v>
+      </c>
+      <c r="H3">
+        <v>2.5222246877015633</v>
+      </c>
+      <c r="I3">
+        <v>0.77296485762128864</v>
+      </c>
+      <c r="J3">
+        <v>1.5343705174543583</v>
+      </c>
+      <c r="K3">
+        <v>1.3022682762429907</v>
+      </c>
+      <c r="L3">
+        <v>0.54838763585117623</v>
+      </c>
+      <c r="M3">
+        <v>0.48019634851184995</v>
+      </c>
+      <c r="N3">
         <v>0.22171485292124826</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>1.1008864504096048</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>0.1065490137721276</v>
+      </c>
+      <c r="Q3">
+        <v>0.32868308781257033</v>
+      </c>
+      <c r="R3">
+        <v>0.41968688556390954</v>
+      </c>
+      <c r="S3">
+        <v>0.13481646186478749</v>
+      </c>
+      <c r="T3">
+        <v>0.26089901565459783</v>
+      </c>
+      <c r="U3">
+        <v>1.6190064295821875</v>
+      </c>
+      <c r="V3">
+        <v>0.88919096327218916</v>
+      </c>
+      <c r="W3">
+        <v>6.5504973787540346E-2</v>
+      </c>
+      <c r="X3">
+        <v>0.16642673234980535</v>
+      </c>
+      <c r="Y3">
+        <v>0.38441500693178243</v>
+      </c>
+      <c r="AA3">
+        <v>0.48551897772180413</v>
+      </c>
+      <c r="AB3">
+        <v>2.3560093903238326</v>
+      </c>
+      <c r="AC3">
+        <v>1.2775925025770385</v>
+      </c>
+      <c r="AD3">
+        <v>0.45887736074383539</v>
+      </c>
+      <c r="AE3">
+        <v>1.9038159510286095</v>
+      </c>
+      <c r="AF3">
+        <v>0.43393264973406681</v>
+      </c>
+      <c r="AG3">
+        <v>0.49101170312801395</v>
+      </c>
+      <c r="AH3">
+        <v>0.17737890073088775</v>
+      </c>
+      <c r="AI3">
+        <v>1.1204201025617604</v>
+      </c>
+      <c r="AJ3">
+        <v>1.453284883493402</v>
+      </c>
+      <c r="AK3">
+        <v>0.51957364656027594</v>
+      </c>
+      <c r="AL3">
+        <v>0.25741371673245539</v>
+      </c>
+      <c r="AM3">
         <v>0.26917189315422441</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>0.93931927950181182</v>
       </c>
-      <c r="F3">
-        <v>1.0270541743419341</v>
-      </c>
-      <c r="G3">
-        <v>1.6682355877988269</v>
-      </c>
-      <c r="H3">
-        <v>2.5222246675856943</v>
-      </c>
-      <c r="I3">
-        <v>0.77296487608467035</v>
-      </c>
-      <c r="J3">
-        <v>1.5343705237731566</v>
-      </c>
-      <c r="K3">
-        <v>1.3022682784151767</v>
-      </c>
-      <c r="L3">
-        <v>0.54838763684212821</v>
-      </c>
-      <c r="M3">
-        <v>0.47946994868204129</v>
-      </c>
-      <c r="N3">
-        <v>0.22171485292075674</v>
-      </c>
-      <c r="O3">
-        <v>1.1008864445316475</v>
-      </c>
-      <c r="P3">
-        <v>0.10654901385004543</v>
-      </c>
-      <c r="Q3">
-        <v>0.32868308807882302</v>
-      </c>
-      <c r="R3">
-        <v>0.41968688564610845</v>
-      </c>
-      <c r="S3">
-        <v>0.1348164618242795</v>
-      </c>
-      <c r="T3">
-        <v>0.26089901997774806</v>
-      </c>
-      <c r="U3">
-        <v>1.6190064145787695</v>
-      </c>
-      <c r="V3">
-        <v>0.889190973282313</v>
-      </c>
-      <c r="W3">
-        <v>6.5504973760954321E-2</v>
-      </c>
-      <c r="X3">
-        <v>0.16642673235483676</v>
-      </c>
-      <c r="Y3">
-        <v>0.38441500626225128</v>
-      </c>
-      <c r="AA3">
-        <v>0.48551899213303001</v>
-      </c>
-      <c r="AB3">
-        <v>2.3560094051064655</v>
-      </c>
-      <c r="AC3">
-        <v>1.277592498645616</v>
-      </c>
-      <c r="AD3">
-        <v>0.45887736041352128</v>
-      </c>
-      <c r="AE3">
-        <v>1.9038159458360628</v>
-      </c>
-      <c r="AF3">
-        <v>0.43393264926010727</v>
-      </c>
-      <c r="AG3">
-        <v>0.49101170088341467</v>
-      </c>
-      <c r="AH3">
-        <v>0.17737890074035942</v>
-      </c>
-      <c r="AI3">
-        <v>1.1204201050497609</v>
-      </c>
-      <c r="AJ3">
-        <v>1.4532848789407413</v>
-      </c>
-      <c r="AK3">
-        <v>0.51957364628056757</v>
-      </c>
-      <c r="AL3">
-        <v>0.25741371710361372</v>
-      </c>
-      <c r="AM3">
-        <v>0.26917189289334414</v>
-      </c>
-      <c r="AN3">
-        <v>0.93931927383405911</v>
-      </c>
       <c r="AO3">
-        <v>0.10536211172294078</v>
+        <v>0.10536211213486456</v>
       </c>
       <c r="AP3">
-        <v>0.16754317096552757</v>
+        <v>0.16754317099500138</v>
       </c>
       <c r="AQ3">
-        <v>0.10334605989706291</v>
+        <v>0.1033460594134976</v>
       </c>
       <c r="AR3">
-        <v>0.16919453383563454</v>
+        <v>0.16919453465774068</v>
       </c>
       <c r="AS3">
-        <v>0.31724152560933011</v>
+        <v>0.31724152475543382</v>
       </c>
       <c r="AT3">
-        <v>1.0634525148498561</v>
+        <v>1.0634525170407298</v>
       </c>
       <c r="AU3">
-        <v>1.0149362924017455</v>
+        <v>1.014936292086362</v>
       </c>
       <c r="AV3">
-        <v>0.30351292993427825</v>
+        <v>0.30351293022124393</v>
       </c>
       <c r="AW3">
-        <v>0.22466492475109304</v>
+        <v>0.22466492481740055</v>
       </c>
       <c r="AX3">
-        <v>0.43393286918664248</v>
+        <v>0.43393286934544162</v>
       </c>
       <c r="AY3">
-        <v>0.44942418364155073</v>
+        <v>0.44942418455278021</v>
       </c>
     </row>
   </sheetData>
